--- a/data/trans_camb/P12_1_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Clase-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-6.187308987414306</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-2.242990481625134</v>
+        <v>-2.242990481625137</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.912547102353691</v>
+        <v>-3.489287498897316</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.727802778924929</v>
+        <v>-9.885125025638175</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.059347700182718</v>
+        <v>-6.799199473178237</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.149585840874192</v>
+        <v>-7.986754886250742</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-13.36638716386677</v>
+        <v>-13.54237659868881</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-7.990753976256541</v>
+        <v>-7.751285514616655</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.41836259851938</v>
+        <v>-3.482278183459739</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-9.505218873392815</v>
+        <v>-9.952071269289313</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-5.764076959892788</v>
+        <v>-6.136209685559538</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.160278495230488</v>
+        <v>7.312180703982973</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.7580354696933388</v>
+        <v>-0.2995996882118234</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.89509882889258</v>
+        <v>2.181071407378584</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.847683129134841</v>
+        <v>5.12790459121701</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-2.03975059500084</v>
+        <v>-2.213648511488013</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.624917857285641</v>
+        <v>3.004428782195293</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.976440542013616</v>
+        <v>4.350874345300568</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-2.601868275248286</v>
+        <v>-2.900985188577469</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.210723126474438</v>
+        <v>1.136508971792489</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.3645171884790989</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1321428404190712</v>
+        <v>-0.1321428404190714</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2043498561895473</v>
+        <v>-0.2018038586899353</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5420168155692985</v>
+        <v>-0.5449019353553514</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3967418785077671</v>
+        <v>-0.3829886535533284</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3684274072262736</v>
+        <v>-0.3631572727354699</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6008832530565322</v>
+        <v>-0.6091818402122655</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3492047717886114</v>
+        <v>-0.3438745212535242</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1800373582128667</v>
+        <v>-0.1879600941958783</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5005582835612752</v>
+        <v>-0.5257981552463236</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3041084316335504</v>
+        <v>-0.3079271136888779</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5496210936288493</v>
+        <v>0.5657806067066548</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.05214613152375469</v>
+        <v>-0.008898405639187323</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1523375085266123</v>
+        <v>0.178145780959531</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3209789689703188</v>
+        <v>0.3230715503012402</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1178138273612453</v>
+        <v>-0.1207910205541226</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1708137570948348</v>
+        <v>0.1955630260391388</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3327905247742142</v>
+        <v>0.2914831584438096</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.169801542765776</v>
+        <v>-0.1907917399918281</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.08904165318826006</v>
+        <v>0.0816424885248206</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-2.302789726977926</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.02872450144940086</v>
+        <v>-0.02872450144940225</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>5.014347015547874</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.402965471599661</v>
+        <v>-1.355067075354997</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.291689311106336</v>
+        <v>-6.735653113986398</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.790269782750854</v>
+        <v>-4.095979463642768</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.491608942520732</v>
+        <v>-1.739165711161976</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-13.24172764137799</v>
+        <v>-13.23813076825509</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-6.590244432879759</v>
+        <v>-5.790012219009795</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.9618092651899935</v>
+        <v>-0.805496664958615</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-8.755239544401954</v>
+        <v>-8.338601798024344</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.562818884041277</v>
+        <v>-4.473476393110603</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.389631794576253</v>
+        <v>9.001037364389738</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.121745721145424</v>
+        <v>3.039986515974458</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.419537248716431</v>
+        <v>4.956315540195775</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.63205334033086</v>
+        <v>11.44273966058724</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-2.461288519156049</v>
+        <v>-1.959749694371581</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.953020490357172</v>
+        <v>4.37118246799851</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.753977084204185</v>
+        <v>7.72770854704492</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.359203602098031</v>
+        <v>-0.7962376660798451</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.52144595042194</v>
+        <v>2.666314712149318</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.1931403947539372</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.002409191548864551</v>
+        <v>-0.002409191548864667</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.2415125977297785</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1754793583986704</v>
+        <v>-0.107830416794038</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4945635492935731</v>
+        <v>-0.4741644992617239</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.330998830129659</v>
+        <v>-0.2897580335856397</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.06768701461277529</v>
+        <v>-0.07194846522427015</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5541409788820743</v>
+        <v>-0.5543825982496797</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2739350990134645</v>
+        <v>-0.2494583804887923</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.05680466798949176</v>
+        <v>-0.03803419799481206</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4681993225020089</v>
+        <v>-0.4609979913493722</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.237659527595125</v>
+        <v>-0.2436810120300977</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.8650491819581688</v>
+        <v>0.9213333681471074</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2338066621398374</v>
+        <v>0.3345973161786484</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.4402301591909407</v>
+        <v>0.5720954435992546</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6555431178551069</v>
+        <v>0.6366480993782763</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1242474676670335</v>
+        <v>-0.1091557013174554</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2217823043446147</v>
+        <v>0.2335705432518011</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5225762744514437</v>
+        <v>0.5360656759050463</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.09071863923877865</v>
+        <v>-0.05333557448034779</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1775273392620157</v>
+        <v>0.1886442565747667</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-1.105564703892037</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-1.743509613966485</v>
+        <v>-1.743509613966487</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.031174219332864</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.289748025229803</v>
+        <v>-4.974931818129929</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-10.76432810729283</v>
+        <v>-11.31117928874282</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.349522983570317</v>
+        <v>-7.981110247243041</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.025270990190655</v>
+        <v>-4.502208866232387</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-9.951763461256306</v>
+        <v>-9.416718364058696</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-9.362234852311319</v>
+        <v>-9.440543514995072</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.904184677827146</v>
+        <v>-2.758470980081287</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-9.253864056557248</v>
+        <v>-9.284001308591645</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-6.881859855850138</v>
+        <v>-7.442008697012077</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.23949003231683</v>
+        <v>4.005680046725269</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.202889756797559</v>
+        <v>-2.392897498066736</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9781153274039669</v>
+        <v>1.268495256738819</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.15878328959213</v>
+        <v>12.54491440546995</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.303445186798022</v>
+        <v>9.307192447485768</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.310425571042278</v>
+        <v>6.201605533894496</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.983431767429892</v>
+        <v>4.927334162527669</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-1.581811378588546</v>
+        <v>-1.695077208603269</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.164027219295466</v>
+        <v>0.5875386726931315</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.05135127642732615</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.08098254568484921</v>
+        <v>-0.08098254568484933</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.05372676993243554</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2501660859623859</v>
+        <v>-0.2402227725704297</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5248735814295683</v>
+        <v>-0.5315204744624581</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3967466338280879</v>
+        <v>-0.3804177048199422</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1821298589409773</v>
+        <v>-0.1709385214554874</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3900079445946153</v>
+        <v>-0.3704024001691383</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3512944925935769</v>
+        <v>-0.3512292493904444</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1351717390369001</v>
+        <v>-0.131578580228127</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4445150197524975</v>
+        <v>-0.4453785354253826</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3235879778907227</v>
+        <v>-0.3459751366980395</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2640435768004343</v>
+        <v>0.2463550197308224</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1254002383527468</v>
+        <v>-0.1351901385432494</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.06225029123332769</v>
+        <v>0.08365453981953461</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7141575091080213</v>
+        <v>0.748436924973128</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5264592187030905</v>
+        <v>0.5736149401881309</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3106045630457835</v>
+        <v>0.3940587002111412</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2932574733556729</v>
+        <v>0.2865873575810448</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.08929703518226938</v>
+        <v>-0.09861912455719668</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.0643210044594946</v>
+        <v>0.03313238213852601</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-6.736169372843539</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-5.958046945512219</v>
+        <v>-5.958046945512222</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.808653184609558</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.324408015289467</v>
+        <v>-6.23679102597114</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-9.737745727698389</v>
+        <v>-9.773540121987036</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-9.020397825904224</v>
+        <v>-8.784915731885615</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.110940655553004</v>
+        <v>-1.354311731727647</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-10.68666264699124</v>
+        <v>-10.30460667567238</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-7.397431102055102</v>
+        <v>-7.042509648713735</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.552772647923333</v>
+        <v>-3.331833459117878</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-8.991588652076638</v>
+        <v>-8.889441185702427</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-6.917784730305579</v>
+        <v>-7.0908060097316</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3001491647960532</v>
+        <v>0.3938234006244797</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-3.900528623991835</v>
+        <v>-3.772831459289248</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-3.081822619112922</v>
+        <v>-2.547936540836007</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.183934476540174</v>
+        <v>7.673072806129986</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-2.409434737429271</v>
+        <v>-2.312448075716097</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4592950902446635</v>
+        <v>0.5914402805049015</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.771239891722676</v>
+        <v>1.700759134061391</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-4.292229835624359</v>
+        <v>-4.132464240184121</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-2.073090086486731</v>
+        <v>-2.425960334329446</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.3374392113756091</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.2984602303406477</v>
+        <v>-0.2984602303406479</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1206183305466816</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.295116849120983</v>
+        <v>-0.2928697230700374</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4492263255005891</v>
+        <v>-0.4593197230386118</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4203443967010723</v>
+        <v>-0.408982444321604</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.07936312063833968</v>
+        <v>-0.05995874818644763</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4118456389963375</v>
+        <v>-0.4049486690161845</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2820222130568654</v>
+        <v>-0.2772633241058326</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1570254361746018</v>
+        <v>-0.1472284661555151</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3973700759401471</v>
+        <v>-0.3989975642995169</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3084592116009886</v>
+        <v>-0.312590687985084</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.02182222647532232</v>
+        <v>0.02327145656949628</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.2066000761233698</v>
+        <v>-0.2059180012569044</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.166331795389375</v>
+        <v>-0.1338706006765397</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3456317248423046</v>
+        <v>0.3688610221586063</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1152268040792546</v>
+        <v>-0.1103201827486679</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02374423177745217</v>
+        <v>0.02900944723769824</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0893121314672341</v>
+        <v>0.08619144098686513</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.2150488828425933</v>
+        <v>-0.2089966189723124</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.103526338121147</v>
+        <v>-0.1187504827848517</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-5.826505462614537</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-4.512425323134411</v>
+        <v>-4.512425323134417</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>2.178977486681283</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-9.902985365866231</v>
+        <v>-10.04358043427051</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-10.58645652721638</v>
+        <v>-10.57263246526644</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-9.73187494153945</v>
+        <v>-10.30401834387683</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.946023923760544</v>
+        <v>-2.943439417580441</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-8.593559794840067</v>
+        <v>-9.057109380954367</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-7.176018288022465</v>
+        <v>-7.014315197386166</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-4.34282881562311</v>
+        <v>-4.022024915324787</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-9.134042474130123</v>
+        <v>-9.055664165738895</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-7.036346863193423</v>
+        <v>-7.156928769727386</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.5357182025385743</v>
+        <v>0.8323692833969039</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.5515574892897548</v>
+        <v>-0.5219631726847507</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8700217117669615</v>
+        <v>0.5183886287474229</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.858986257544794</v>
+        <v>7.145523523611358</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.4794475809587032</v>
+        <v>0.6482996098109389</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.713651363191799</v>
+        <v>1.618760447476012</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.932988713067713</v>
+        <v>3.195262399625209</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-2.31480741133507</v>
+        <v>-1.429464133176426</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1295772041773684</v>
+        <v>-0.3236026478421223</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.307705909860818</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.2383074981467547</v>
+        <v>-0.238307498146755</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.08574623051928659</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4503466183928815</v>
+        <v>-0.4574986436781565</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4803925037988917</v>
+        <v>-0.4779602834909435</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4415280002939451</v>
+        <v>-0.4551614789249432</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1020304002973607</v>
+        <v>-0.1002487619125662</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3081738572313829</v>
+        <v>-0.3169571065554933</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2477078764987338</v>
+        <v>-0.2504515124386055</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1731020331131525</v>
+        <v>-0.1585654568711199</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3592836148873692</v>
+        <v>-0.3568924599167708</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2765992973629885</v>
+        <v>-0.2782464691699489</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.03689814091600588</v>
+        <v>0.05140977825401698</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.0214023826715708</v>
+        <v>-0.02005185834712005</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.05310411577720028</v>
+        <v>0.03400018848230883</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2990840355995316</v>
+        <v>0.3174779599498255</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.02933992192166674</v>
+        <v>0.0358833549800695</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.079305260500329</v>
+        <v>0.07000828021979799</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1418816121483473</v>
+        <v>0.1553935726205225</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1055025731044754</v>
+        <v>-0.06823324397373158</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.005641716732886855</v>
+        <v>-0.01212105602108393</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-6.33014002453938</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-5.097516032558455</v>
+        <v>-5.097516032558458</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>4.211649808261736</v>
@@ -1734,7 +1734,7 @@
         <v>-5.442704454079722</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-4.122125664013243</v>
+        <v>-4.122125664013238</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.212768883489228</v>
+        <v>-4.234688461133879</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.105755752269677</v>
+        <v>-5.177716051486223</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.763386252458781</v>
+        <v>-4.028202487125211</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.364660781788188</v>
+        <v>1.734978795540728</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-9.970245904009641</v>
+        <v>-9.683292340059884</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-8.361692994179835</v>
+        <v>-8.175083048234548</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.7942362999061219</v>
+        <v>1.123939145009803</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-7.972477797329537</v>
+        <v>-8.331962901702811</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-7.037899968762519</v>
+        <v>-7.233084397909878</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.449641558985557</v>
+        <v>4.432237749137572</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.467340248192954</v>
+        <v>3.1114199308007</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7.777462056603385</v>
+        <v>7.846843240532938</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8.731804284746167</v>
+        <v>9.072114968400749</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-3.229364291002527</v>
+        <v>-3.006375072945819</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-2.095288648847621</v>
+        <v>-1.95519548646817</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.189068490193586</v>
+        <v>7.184159865441796</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-2.567593470060826</v>
+        <v>-2.830261361931791</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-1.062513106226494</v>
+        <v>-1.409813671051152</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.2909423106214225</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.2342891448203346</v>
+        <v>-0.2342891448203347</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.2213435706829103</v>
@@ -1839,7 +1839,7 @@
         <v>-0.2860417396704218</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.2166386225859858</v>
+        <v>-0.2166386225859855</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4431752569148237</v>
+        <v>-0.4444849075809835</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.5200968142870679</v>
+        <v>-0.5343114809536137</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4459433553090714</v>
+        <v>-0.468111598550592</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.06212046631391729</v>
+        <v>0.07292834077102744</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4222381746580773</v>
+        <v>-0.4131912623872656</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3514770923844282</v>
+        <v>-0.3505737721068922</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03249984918327863</v>
+        <v>0.05679059345977967</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3958796677485386</v>
+        <v>-0.4051703086699454</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3379954752081124</v>
+        <v>-0.3572612443954065</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.8368613134487932</v>
+        <v>0.8338775250658282</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.6677762023439929</v>
+        <v>0.6091383305113494</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.443038230046304</v>
+        <v>1.553506483830563</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4327527289565191</v>
+        <v>0.445222032604253</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.1585739393059494</v>
+        <v>-0.1473718020262142</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.1062848299201401</v>
+        <v>-0.09617783265100793</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4022464752877004</v>
+        <v>0.40779869229558</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.1442557678754247</v>
+        <v>-0.157497867903721</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.05360585488947299</v>
+        <v>-0.07692294815641557</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>-5.285083297860865</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-3.575104784027114</v>
+        <v>-3.575104784027111</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>3.52391174170335</v>
@@ -1948,7 +1948,7 @@
         <v>-5.513626467397017</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-3.200491649626214</v>
+        <v>-3.200491649626211</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.927113762982554</v>
+        <v>-3.04525568926468</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-7.14791026582763</v>
+        <v>-7.038834418905797</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-5.389381736443093</v>
+        <v>-5.223113343367011</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.15369968319301</v>
+        <v>1.624145426498043</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-7.589190555046694</v>
+        <v>-7.620269722518475</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-4.664187037657006</v>
+        <v>-4.701285171150776</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.2018310607256419</v>
+        <v>-0.1934900225227737</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-6.728442300021797</v>
+        <v>-6.79117403888937</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-4.437644973515475</v>
+        <v>-4.425852317547706</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.5968965244096786</v>
+        <v>0.7070749204948139</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-3.651101133024386</v>
+        <v>-3.653509380582461</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-1.768269430326693</v>
+        <v>-1.65446130584559</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.366500858028156</v>
+        <v>5.629545753635614</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-3.744844162899002</v>
+        <v>-3.802993349427158</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-1.017371614018431</v>
+        <v>-1.057036253109474</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.545246107119115</v>
+        <v>2.620540741600925</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-4.100660574327077</v>
+        <v>-4.232811242224027</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-1.901003417152409</v>
+        <v>-1.848340520625693</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.3122230583962651</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.2112038896733866</v>
+        <v>-0.2112038896733864</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.1576782402075623</v>
@@ -2053,7 +2053,7 @@
         <v>-0.2801352249656981</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.1626099362317064</v>
+        <v>-0.1626099362317062</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1638995003457079</v>
+        <v>-0.168995366695116</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3973402532263642</v>
+        <v>-0.3971278350384344</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3002957199342732</v>
+        <v>-0.2933019339965366</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.04872572826826516</v>
+        <v>0.06994970788549282</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3276671055074656</v>
+        <v>-0.3286948420048271</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1991771641810051</v>
+        <v>-0.2015587992650977</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.01050155082803999</v>
+        <v>-0.01043128860364356</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.3318128013994017</v>
+        <v>-0.3328021558797662</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.2171742542726666</v>
+        <v>-0.2156990742157895</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.03716609825950806</v>
+        <v>0.04214785911716323</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.2258833713718636</v>
+        <v>-0.2279150456476453</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.1126650918412965</v>
+        <v>-0.09818311952484432</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.2490553290387596</v>
+        <v>0.2643185526825835</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.1759087258142555</v>
+        <v>-0.1796421339483249</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.04661353650730964</v>
+        <v>-0.05016136007474615</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1338297685664693</v>
+        <v>0.1366592698554837</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.2174648151320809</v>
+        <v>-0.2208720382122476</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.1011764593309415</v>
+        <v>-0.09589824956060812</v>
       </c>
     </row>
     <row r="46">
